--- a/public/BOQ_BOM_Template.xlsx
+++ b/public/BOQ_BOM_Template.xlsx
@@ -95,7 +95,7 @@
     <t>TÊN DỰ ÁN</t>
   </si>
   <si>
-    <t>CLENERGY STRUCTURES</t>
+    <t>VIMETCO STRUCTURES</t>
   </si>
   <si>
     <t>HUAWEI</t>
@@ -1032,7 +1032,7 @@
     <numFmt numFmtId="166" formatCode="_(* #,##0.000_);_(* (#,##0.000);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -1043,13 +1043,6 @@
     <font>
       <b/>
       <sz val="14"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FFFFFFFF"/>
-      <family val="1"/>
-      <sz val="10"/>
-      <name val="Cambria"/>
     </font>
     <font>
       <b/>
@@ -1201,18 +1194,12 @@
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1238,21 +1225,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1382,276 +1360,273 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="46" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="46" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="46" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="46" fontId="16" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="16" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2085,132 +2060,132 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
     </row>
     <row r="2" ht="25" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3" t="s">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3" t="s">
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="V3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="3"/>
+      <c r="W3" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2242,7 +2217,7 @@
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10" style="3" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
@@ -2253,4562 +2228,4562 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="5"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="5"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="4"/>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="5"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" ht="20.25" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="5"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M7" s="5"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="18" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="18" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="18" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="20"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" ht="16.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="5"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" ht="43.5" customHeight="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="22" t="s">
+      <c r="L13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="33"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="33">
         <v>1</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="42"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="41"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="33">
         <v>2</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="42"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="41"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
+      <c r="A17" s="42">
         <v>3</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="C17" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="42"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="41"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="33">
         <v>4</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="42"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="41"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="33">
         <v>5</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="42"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="41"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="33">
         <v>6</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="42"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="41"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="33">
         <v>7</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="42"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="41"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+      <c r="A22" s="33">
         <v>8</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="42"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="33">
         <v>9</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="42"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="41"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="33"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="25" hidden="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="33">
         <v>1</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="A26" s="33">
         <v>2</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="35" t="s">
+      <c r="E26" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="42"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="41"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="33">
         <v>3</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="35" t="s">
+      <c r="E27" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="45"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="42"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="41"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="33"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="32"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="33">
         <v>1</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="42"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="41"/>
     </row>
     <row r="30" hidden="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="33">
         <v>2</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="33">
         <v>3</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="45"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="42"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="41"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="33">
         <v>4</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="42"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="41"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="33"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="32"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="50">
+      <c r="A34" s="49">
         <v>1</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="36" t="s">
+      <c r="D34" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="53"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="52"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="50">
+      <c r="A35" s="49">
         <v>2</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="53"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="53"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="52"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="A36" s="33">
         <v>3</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="35" t="s">
+      <c r="D36" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F36" s="37"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="42"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="41"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+      <c r="A37" s="33">
         <v>4</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="35" t="s">
+      <c r="D37" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="36" t="s">
+      <c r="E37" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="42"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="41"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="A38" s="33">
         <v>5</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="36" t="s">
+      <c r="D38" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E38" s="36" t="s">
+      <c r="E38" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="42"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="41"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="33"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="32"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+      <c r="A40" s="33">
         <v>1</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="35" t="s">
+      <c r="E40" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="42"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="41"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="34">
+      <c r="A41" s="33">
         <v>2</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="42"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="41"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+      <c r="A42" s="33">
         <v>3</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36" t="s">
+      <c r="C42" s="34"/>
+      <c r="D42" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="E42" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="42"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="41"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+      <c r="A43" s="33">
         <v>4</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="36" t="s">
+      <c r="C43" s="57"/>
+      <c r="D43" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="36" t="s">
+      <c r="E43" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="42"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="41"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="33"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="32"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="34">
+      <c r="A45" s="33">
         <v>1</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E45" s="36" t="s">
+      <c r="E45" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="42"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="41"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
+      <c r="A46" s="33">
         <v>2</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="D46" s="36" t="s">
+      <c r="D46" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E46" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="42"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="41"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="34">
+      <c r="A47" s="33">
         <v>3</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D47" s="36" t="s">
+      <c r="D47" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="42"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="41"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
+      <c r="A48" s="33">
         <v>4</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D48" s="36" t="s">
+      <c r="D48" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="35" t="s">
+      <c r="E48" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="45"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="42"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="41"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="34">
+      <c r="A49" s="33">
         <v>5</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D49" s="36" t="s">
+      <c r="D49" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="35" t="s">
+      <c r="E49" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="42"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="41"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="34">
+      <c r="A50" s="33">
         <v>6</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D50" s="36" t="s">
+      <c r="D50" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E50" s="35" t="s">
+      <c r="E50" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="42"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="41"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
+      <c r="A51" s="33">
         <v>7</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="36" t="s">
+      <c r="D51" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="36" t="s">
+      <c r="E51" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="42"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="41"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="34">
+      <c r="A52" s="33">
         <v>8</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="E52" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="37"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="42"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="41"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="34">
+      <c r="A53" s="33">
         <v>9</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="E53" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="45"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="42"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="41"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="34">
+      <c r="A54" s="33">
         <v>10</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D54" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="35" t="s">
+      <c r="E54" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="37"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="42"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="41"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
+      <c r="A55" s="33">
         <v>11</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="37"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="42"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="41"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
+      <c r="A56" s="33">
         <v>12</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="E56" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F56" s="37"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="40"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="42"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="41"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="28" t="s">
+      <c r="A57" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="29"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="33"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="32"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="34">
+      <c r="A58" s="33">
         <v>1</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="D58" s="35" t="s">
+      <c r="D58" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E58" s="35" t="s">
+      <c r="E58" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F58" s="37"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="42"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="41"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
+      <c r="A59" s="33">
         <v>2</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="D59" s="35" t="s">
+      <c r="D59" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F59" s="37"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="45"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="40"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="42"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="34"/>
+      <c r="M59" s="41"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="34">
+      <c r="A60" s="33">
         <v>3</v>
       </c>
-      <c r="B60" s="35" t="s">
+      <c r="B60" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="D60" s="35" t="s">
+      <c r="D60" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="35" t="s">
+      <c r="E60" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="37"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="40"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="42"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="34"/>
+      <c r="M60" s="41"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="34">
+      <c r="A61" s="33">
         <v>4</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35" t="s">
+      <c r="C61" s="34"/>
+      <c r="D61" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E61" s="35" t="s">
+      <c r="E61" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="40"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="42"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="41"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="34">
+      <c r="A62" s="33">
         <v>5</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D62" s="35" t="s">
+      <c r="D62" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="E62" s="35" t="s">
+      <c r="E62" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F62" s="37"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="42"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="41"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="34">
+      <c r="A63" s="33">
         <v>6</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="D63" s="35" t="s">
+      <c r="D63" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="35" t="s">
+      <c r="E63" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F63" s="37"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="45"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="42"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="34"/>
+      <c r="M63" s="41"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
+      <c r="A64" s="33">
         <v>7</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D64" s="35" t="s">
+      <c r="D64" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="F64" s="37"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="42"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="34"/>
+      <c r="M64" s="41"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
-      <c r="F65" s="29"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="29"/>
-      <c r="M65" s="33"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="31"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="32"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="34">
+      <c r="A66" s="33">
         <v>1</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="D66" s="36" t="s">
+      <c r="D66" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F66" s="37"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="42"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="41"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="34">
+      <c r="A67" s="33">
         <v>2</v>
       </c>
-      <c r="B67" s="47" t="s">
+      <c r="B67" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="D67" s="35" t="s">
+      <c r="D67" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F67" s="37"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="42"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="41"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="34">
+      <c r="A68" s="33">
         <v>3</v>
       </c>
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="D68" s="35" t="s">
+      <c r="D68" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E68" s="36" t="s">
+      <c r="E68" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F68" s="37"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="42"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="41"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="34">
+      <c r="A69" s="33">
         <v>4</v>
       </c>
-      <c r="B69" s="47" t="s">
+      <c r="B69" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="D69" s="35" t="s">
+      <c r="D69" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F69" s="37"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="42"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="41"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="34">
+      <c r="A70" s="33">
         <v>5</v>
       </c>
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="D70" s="35" t="s">
+      <c r="D70" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E70" s="36" t="s">
+      <c r="E70" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="37"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="40"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="42"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="41"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="34">
+      <c r="A71" s="33">
         <v>6</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="35" t="s">
+      <c r="D71" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F71" s="37"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="40"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="42"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="41"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="34">
+      <c r="A72" s="33">
         <v>7</v>
       </c>
-      <c r="B72" s="47" t="s">
+      <c r="B72" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C72" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="D72" s="35" t="s">
+      <c r="D72" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E72" s="36" t="s">
+      <c r="E72" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F72" s="37"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="45"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="40"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="42"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="41"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="34">
+      <c r="A73" s="33">
         <v>8</v>
       </c>
-      <c r="B73" s="47" t="s">
+      <c r="B73" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="D73" s="35" t="s">
+      <c r="D73" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E73" s="36" t="s">
+      <c r="E73" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="45"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="40"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="42"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="41"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="34">
+      <c r="A74" s="33">
         <v>9</v>
       </c>
-      <c r="B74" s="47" t="s">
+      <c r="B74" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="35" t="s">
+      <c r="C74" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="D74" s="35" t="s">
+      <c r="D74" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="E74" s="35" t="s">
+      <c r="E74" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F74" s="37"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="45"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="40"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="42"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="41"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="34">
+      <c r="A75" s="33">
         <v>10</v>
       </c>
-      <c r="B75" s="47" t="s">
+      <c r="B75" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="C75" s="35" t="s">
+      <c r="C75" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="D75" s="35" t="s">
+      <c r="D75" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="E75" s="35" t="s">
+      <c r="E75" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F75" s="37"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="45"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="40"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="42"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="41"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="34">
+      <c r="A76" s="33">
         <v>11</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="35"/>
-      <c r="D76" s="36" t="s">
+      <c r="C76" s="34"/>
+      <c r="D76" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E76" s="36" t="s">
+      <c r="E76" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="F76" s="37"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="45"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="40"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="42"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="41"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="29"/>
-      <c r="F77" s="29"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="29"/>
-      <c r="M77" s="33"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="28"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="31"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="32"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="34">
+      <c r="A78" s="33">
         <v>1</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35" t="s">
+      <c r="C78" s="34"/>
+      <c r="D78" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="E78" s="35" t="s">
+      <c r="E78" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F78" s="37"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="42"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="41"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="34">
+      <c r="A79" s="33">
         <v>2</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35" t="s">
+      <c r="C79" s="34"/>
+      <c r="D79" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E79" s="36" t="s">
+      <c r="E79" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F79" s="37"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="45"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="42"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="34"/>
+      <c r="M79" s="41"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="34">
+      <c r="A80" s="33">
         <v>3</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C80" s="35"/>
-      <c r="D80" s="36" t="s">
+      <c r="C80" s="34"/>
+      <c r="D80" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E80" s="36" t="s">
+      <c r="E80" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F80" s="37"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="40"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="42"/>
+      <c r="F80" s="36"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="41"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="34">
+      <c r="A81" s="33">
         <v>4</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35" t="s">
+      <c r="C81" s="34"/>
+      <c r="D81" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="E81" s="35" t="s">
+      <c r="E81" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F81" s="37"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="45"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="40"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="42"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="41"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="34">
+      <c r="A82" s="33">
         <v>5</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="C82" s="35"/>
-      <c r="D82" s="36" t="s">
+      <c r="C82" s="34"/>
+      <c r="D82" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E82" s="36" t="s">
+      <c r="E82" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F82" s="37"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="45"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="40"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="42"/>
+      <c r="F82" s="36"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="41"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="34">
+      <c r="A83" s="33">
         <v>6</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="D83" s="35" t="s">
+      <c r="D83" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="E83" s="35" t="s">
+      <c r="E83" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F83" s="37"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="45"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="40"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="42"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="34"/>
+      <c r="M83" s="41"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="34">
+      <c r="A84" s="33">
         <v>7</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="C84" s="35"/>
-      <c r="D84" s="36" t="s">
+      <c r="C84" s="34"/>
+      <c r="D84" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E84" s="36" t="s">
+      <c r="E84" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="45"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="40"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="42"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="34"/>
+      <c r="M84" s="41"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="34">
+      <c r="A85" s="33">
         <v>8</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="C85" s="35"/>
-      <c r="D85" s="36" t="s">
+      <c r="C85" s="34"/>
+      <c r="D85" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E85" s="36" t="s">
+      <c r="E85" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F85" s="37"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="45"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="40"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="42"/>
+      <c r="F85" s="36"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="41"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="50">
+      <c r="A86" s="49">
         <v>9</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="C86" s="56"/>
-      <c r="D86" s="36" t="s">
+      <c r="C86" s="55"/>
+      <c r="D86" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E86" s="36" t="s">
+      <c r="E86" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F86" s="37"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="42"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="41"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="50">
+      <c r="A87" s="49">
         <v>10</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="C87" s="56"/>
-      <c r="D87" s="36" t="s">
+      <c r="C87" s="55"/>
+      <c r="D87" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E87" s="36" t="s">
+      <c r="E87" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F87" s="37"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="45"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="42"/>
+      <c r="F87" s="36"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="41"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="34">
+      <c r="A88" s="33">
         <v>11</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="B88" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="C88" s="56"/>
-      <c r="D88" s="36" t="s">
+      <c r="C88" s="55"/>
+      <c r="D88" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E88" s="36" t="s">
+      <c r="E88" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F88" s="37"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="45"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="42"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="41"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="34">
+      <c r="A89" s="33">
         <v>12</v>
       </c>
-      <c r="B89" s="35" t="s">
+      <c r="B89" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="C89" s="35"/>
-      <c r="D89" s="36" t="s">
+      <c r="C89" s="34"/>
+      <c r="D89" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="E89" s="36" t="s">
+      <c r="E89" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="F89" s="37"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="45"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="42"/>
+      <c r="F89" s="36"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="41"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="34">
+      <c r="A90" s="33">
         <v>13</v>
       </c>
-      <c r="B90" s="35" t="s">
+      <c r="B90" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="C90" s="35"/>
-      <c r="D90" s="36" t="s">
+      <c r="C90" s="34"/>
+      <c r="D90" s="35" t="s">
         <v>187</v>
       </c>
-      <c r="E90" s="36" t="s">
+      <c r="E90" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="F90" s="37"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="45"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="42"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="40"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="41"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="34">
+      <c r="A91" s="33">
         <v>14</v>
       </c>
-      <c r="B91" s="35" t="s">
+      <c r="B91" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35" t="s">
+      <c r="C91" s="34"/>
+      <c r="D91" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E91" s="35" t="s">
+      <c r="E91" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="F91" s="37"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="40"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="59"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="40"/>
+      <c r="L91" s="34"/>
+      <c r="M91" s="58"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="34">
+      <c r="A92" s="33">
         <v>15</v>
       </c>
-      <c r="B92" s="35" t="s">
+      <c r="B92" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C92" s="35" t="s">
+      <c r="C92" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="D92" s="35" t="s">
+      <c r="D92" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E92" s="35" t="s">
+      <c r="E92" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="F92" s="37"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="45"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="41"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="59"/>
+      <c r="F92" s="36"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="40"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="58"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="34">
+      <c r="A93" s="33">
         <v>16</v>
       </c>
-      <c r="B93" s="35" t="s">
+      <c r="B93" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35" t="s">
+      <c r="C93" s="34"/>
+      <c r="D93" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E93" s="35" t="s">
+      <c r="E93" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F93" s="37"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="45"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="41"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="59"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="58"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="B94" s="29" t="s">
+      <c r="B94" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="31"/>
-      <c r="K94" s="32"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="33"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="28"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="31"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="32"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="43">
+      <c r="A95" s="42">
         <v>1</v>
       </c>
-      <c r="B95" s="44" t="s">
+      <c r="B95" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="C95" s="36" t="s">
+      <c r="C95" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="D95" s="36" t="s">
+      <c r="D95" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E95" s="36" t="s">
+      <c r="E95" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="37"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="45"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="52"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="53"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="52"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="43">
+      <c r="A96" s="42">
         <v>2</v>
       </c>
-      <c r="B96" s="44" t="s">
+      <c r="B96" s="43" t="s">
         <v>219</v>
       </c>
-      <c r="C96" s="36" t="s">
+      <c r="C96" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="D96" s="36" t="s">
+      <c r="D96" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E96" s="36" t="s">
+      <c r="E96" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F96" s="37"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="45"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="52"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="53"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="52"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="60">
+      <c r="A97" s="59">
         <v>3</v>
       </c>
-      <c r="B97" s="35" t="s">
+      <c r="B97" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="C97" s="35" t="s">
+      <c r="C97" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="D97" s="35" t="s">
+      <c r="D97" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="E97" s="35" t="s">
+      <c r="E97" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="F97" s="37"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="45"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="53"/>
+      <c r="F97" s="36"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="40"/>
+      <c r="L97" s="34"/>
+      <c r="M97" s="52"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="60">
+      <c r="A98" s="59">
         <v>4</v>
       </c>
-      <c r="B98" s="35" t="s">
+      <c r="B98" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="D98" s="35" t="s">
+      <c r="D98" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E98" s="61" t="s">
+      <c r="E98" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F98" s="37"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="45"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="40"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="35"/>
-      <c r="M98" s="62"/>
+      <c r="F98" s="36"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="40"/>
+      <c r="L98" s="34"/>
+      <c r="M98" s="61"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="60">
+      <c r="A99" s="59">
         <v>5</v>
       </c>
-      <c r="B99" s="35" t="s">
+      <c r="B99" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="D99" s="35" t="s">
+      <c r="D99" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E99" s="61" t="s">
+      <c r="E99" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="F99" s="37"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="45"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="40"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="35"/>
-      <c r="M99" s="53"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="40"/>
+      <c r="L99" s="34"/>
+      <c r="M99" s="52"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="60">
+      <c r="A100" s="59">
         <v>6</v>
       </c>
-      <c r="B100" s="35" t="s">
+      <c r="B100" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="D100" s="35" t="s">
+      <c r="D100" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E100" s="35" t="s">
+      <c r="E100" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F100" s="37"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="45"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="40"/>
-      <c r="K100" s="41"/>
-      <c r="L100" s="35"/>
-      <c r="M100" s="42"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="40"/>
+      <c r="L100" s="34"/>
+      <c r="M100" s="41"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="60">
+      <c r="A101" s="59">
         <v>7</v>
       </c>
-      <c r="B101" s="35" t="s">
+      <c r="B101" s="34" t="s">
         <v>230</v>
       </c>
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="D101" s="35" t="s">
+      <c r="D101" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="E101" s="35" t="s">
+      <c r="E101" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F101" s="37"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="45"/>
-      <c r="I101" s="40"/>
-      <c r="J101" s="63"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="35"/>
-      <c r="M101" s="42"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="62"/>
+      <c r="K101" s="40"/>
+      <c r="L101" s="34"/>
+      <c r="M101" s="41"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="60">
+      <c r="A102" s="59">
         <v>8</v>
       </c>
-      <c r="B102" s="47" t="s">
+      <c r="B102" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C102" s="58" t="s">
+      <c r="C102" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="D102" s="35" t="s">
+      <c r="D102" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="E102" s="35" t="s">
+      <c r="E102" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="F102" s="37"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="45"/>
-      <c r="I102" s="40"/>
-      <c r="J102" s="40"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="35"/>
-      <c r="M102" s="42"/>
+      <c r="F102" s="36"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="39"/>
+      <c r="K102" s="40"/>
+      <c r="L102" s="34"/>
+      <c r="M102" s="41"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="60">
+      <c r="A103" s="59">
         <v>9</v>
       </c>
-      <c r="B103" s="35" t="s">
+      <c r="B103" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="C103" s="35" t="s">
+      <c r="C103" s="34" t="s">
         <v>237</v>
       </c>
-      <c r="D103" s="35" t="s">
+      <c r="D103" s="34" t="s">
         <v>234</v>
       </c>
-      <c r="E103" s="35" t="s">
+      <c r="E103" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="45"/>
-      <c r="I103" s="40"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="35"/>
-      <c r="M103" s="42"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="39"/>
+      <c r="K103" s="40"/>
+      <c r="L103" s="34"/>
+      <c r="M103" s="41"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="60">
+      <c r="A104" s="59">
         <v>10</v>
       </c>
-      <c r="B104" s="35" t="s">
+      <c r="B104" s="34" t="s">
         <v>238</v>
       </c>
-      <c r="C104" s="35">
+      <c r="C104" s="34">
         <v>1004348</v>
       </c>
-      <c r="D104" s="35" t="s">
+      <c r="D104" s="34" t="s">
         <v>239</v>
       </c>
-      <c r="E104" s="36" t="s">
+      <c r="E104" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F104" s="37"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="45"/>
-      <c r="I104" s="40"/>
-      <c r="J104" s="40"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="35"/>
-      <c r="M104" s="42"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="39"/>
+      <c r="K104" s="40"/>
+      <c r="L104" s="34"/>
+      <c r="M104" s="41"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="60">
+      <c r="A105" s="59">
         <v>11</v>
       </c>
-      <c r="B105" s="35" t="s">
+      <c r="B105" s="34" t="s">
         <v>240</v>
       </c>
-      <c r="C105" s="35" t="s">
+      <c r="C105" s="34" t="s">
         <v>241</v>
       </c>
-      <c r="D105" s="35" t="s">
+      <c r="D105" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="E105" s="36" t="s">
+      <c r="E105" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F105" s="37"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="45"/>
-      <c r="I105" s="40"/>
-      <c r="J105" s="40"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="35"/>
-      <c r="M105" s="42"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="40"/>
+      <c r="L105" s="34"/>
+      <c r="M105" s="41"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="60">
+      <c r="A106" s="59">
         <v>12</v>
       </c>
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="34" t="s">
         <v>243</v>
       </c>
-      <c r="C106" s="35" t="s">
+      <c r="C106" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="D106" s="35" t="s">
+      <c r="D106" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="E106" s="36" t="s">
+      <c r="E106" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F106" s="37"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="45"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="40"/>
-      <c r="K106" s="41"/>
-      <c r="L106" s="35"/>
-      <c r="M106" s="42"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="39"/>
+      <c r="K106" s="40"/>
+      <c r="L106" s="34"/>
+      <c r="M106" s="41"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="60">
+      <c r="A107" s="59">
         <v>13</v>
       </c>
-      <c r="B107" s="35" t="s">
+      <c r="B107" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="C107" s="35" t="s">
+      <c r="C107" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="D107" s="35" t="s">
+      <c r="D107" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="E107" s="36" t="s">
+      <c r="E107" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F107" s="37"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="45"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="35"/>
-      <c r="M107" s="42"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="39"/>
+      <c r="K107" s="40"/>
+      <c r="L107" s="34"/>
+      <c r="M107" s="41"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="60">
+      <c r="A108" s="59">
         <v>14</v>
       </c>
-      <c r="B108" s="44" t="s">
+      <c r="B108" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="C108" s="36" t="s">
+      <c r="C108" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="D108" s="36" t="s">
+      <c r="D108" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="E108" s="35" t="s">
+      <c r="E108" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="F108" s="37"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="45"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="40"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="35"/>
-      <c r="M108" s="42"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="39"/>
+      <c r="J108" s="39"/>
+      <c r="K108" s="40"/>
+      <c r="L108" s="34"/>
+      <c r="M108" s="41"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="60">
+      <c r="A109" s="59">
         <v>15</v>
       </c>
-      <c r="B109" s="35" t="s">
+      <c r="B109" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="C109" s="35" t="s">
+      <c r="C109" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="D109" s="35" t="s">
+      <c r="D109" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="E109" s="36" t="s">
+      <c r="E109" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F109" s="37"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="45"/>
-      <c r="I109" s="40"/>
-      <c r="J109" s="40"/>
-      <c r="K109" s="41"/>
-      <c r="L109" s="35"/>
-      <c r="M109" s="42"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="40"/>
+      <c r="L109" s="34"/>
+      <c r="M109" s="41"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="60">
+      <c r="A110" s="59">
         <v>16</v>
       </c>
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="C110" s="35" t="s">
+      <c r="C110" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="D110" s="35" t="s">
+      <c r="D110" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="E110" s="36" t="s">
+      <c r="E110" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F110" s="37"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="45"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="40"/>
-      <c r="K110" s="41"/>
-      <c r="L110" s="35"/>
-      <c r="M110" s="42"/>
+      <c r="F110" s="36"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="39"/>
+      <c r="K110" s="40"/>
+      <c r="L110" s="34"/>
+      <c r="M110" s="41"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="60">
+      <c r="A111" s="59">
         <v>17</v>
       </c>
-      <c r="B111" s="35" t="s">
+      <c r="B111" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="C111" s="35" t="s">
+      <c r="C111" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="D111" s="35" t="s">
+      <c r="D111" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="E111" s="36" t="s">
+      <c r="E111" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F111" s="37"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="45"/>
-      <c r="I111" s="40"/>
-      <c r="J111" s="40"/>
-      <c r="K111" s="41"/>
-      <c r="L111" s="35"/>
-      <c r="M111" s="42"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="40"/>
+      <c r="L111" s="34"/>
+      <c r="M111" s="41"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="28" t="s">
+      <c r="A112" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="B112" s="29" t="s">
+      <c r="B112" s="28" t="s">
         <v>257</v>
       </c>
-      <c r="C112" s="29"/>
-      <c r="D112" s="29"/>
-      <c r="E112" s="29"/>
-      <c r="F112" s="29"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
-      <c r="K112" s="32"/>
-      <c r="L112" s="29"/>
-      <c r="M112" s="33"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="31"/>
+      <c r="L112" s="28"/>
+      <c r="M112" s="32"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="60">
+      <c r="A113" s="59">
         <v>1</v>
       </c>
-      <c r="B113" s="35" t="s">
+      <c r="B113" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="C113" s="35"/>
-      <c r="D113" s="35" t="s">
+      <c r="C113" s="34"/>
+      <c r="D113" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E113" s="36" t="s">
+      <c r="E113" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F113" s="37"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="45"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="41"/>
-      <c r="K113" s="35"/>
-      <c r="L113" s="48"/>
-      <c r="M113" s="42"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="44"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="34"/>
+      <c r="L113" s="47"/>
+      <c r="M113" s="41"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="60">
+      <c r="A114" s="59">
         <v>2</v>
       </c>
-      <c r="B114" s="35" t="s">
+      <c r="B114" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="C114" s="35" t="s">
+      <c r="C114" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="D114" s="35" t="s">
+      <c r="D114" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="E114" s="35" t="s">
+      <c r="E114" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F114" s="37"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="45"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="41"/>
-      <c r="K114" s="35"/>
-      <c r="L114" s="48"/>
-      <c r="M114" s="64"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="44"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="40"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="47"/>
+      <c r="M114" s="63"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="43">
+      <c r="A115" s="42">
         <v>3</v>
       </c>
-      <c r="B115" s="44" t="s">
+      <c r="B115" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="C115" s="36"/>
-      <c r="D115" s="36" t="s">
+      <c r="C115" s="35"/>
+      <c r="D115" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E115" s="36" t="s">
+      <c r="E115" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F115" s="37"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="52"/>
-      <c r="K115" s="36"/>
-      <c r="L115" s="65"/>
-      <c r="M115" s="53"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="50"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="51"/>
+      <c r="K115" s="35"/>
+      <c r="L115" s="64"/>
+      <c r="M115" s="52"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="60">
+      <c r="A116" s="59">
         <v>4</v>
       </c>
-      <c r="B116" s="35" t="s">
+      <c r="B116" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="C116" s="35" t="s">
+      <c r="C116" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="D116" s="35" t="s">
+      <c r="D116" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E116" s="36" t="s">
+      <c r="E116" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F116" s="37"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="45"/>
-      <c r="I116" s="40"/>
-      <c r="J116" s="41"/>
-      <c r="K116" s="35"/>
-      <c r="L116" s="48"/>
-      <c r="M116" s="42"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="44"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="40"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="47"/>
+      <c r="M116" s="41"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="60">
+      <c r="A117" s="59">
         <v>5</v>
       </c>
-      <c r="B117" s="35" t="s">
+      <c r="B117" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="C117" s="35" t="s">
+      <c r="C117" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="D117" s="35" t="s">
+      <c r="D117" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E117" s="36" t="s">
+      <c r="E117" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F117" s="37"/>
-      <c r="G117" s="38"/>
-      <c r="H117" s="45"/>
-      <c r="I117" s="40"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="35"/>
-      <c r="L117" s="48"/>
-      <c r="M117" s="42"/>
+      <c r="F117" s="36"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="44"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="40"/>
+      <c r="K117" s="34"/>
+      <c r="L117" s="47"/>
+      <c r="M117" s="41"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="28" t="s">
+      <c r="A118" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="B118" s="29" t="s">
+      <c r="B118" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="29"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
-      <c r="K118" s="32"/>
-      <c r="L118" s="29"/>
-      <c r="M118" s="33"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
+      <c r="K118" s="31"/>
+      <c r="L118" s="28"/>
+      <c r="M118" s="32"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="66">
+      <c r="A119" s="65">
         <v>1</v>
       </c>
-      <c r="B119" s="35" t="s">
+      <c r="B119" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="C119" s="35" t="s">
+      <c r="C119" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="D119" s="35" t="s">
+      <c r="D119" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="E119" s="35" t="s">
+      <c r="E119" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="F119" s="37"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="45"/>
-      <c r="I119" s="35"/>
-      <c r="J119" s="35"/>
-      <c r="K119" s="35"/>
-      <c r="L119" s="35"/>
-      <c r="M119" s="67"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="44"/>
+      <c r="I119" s="34"/>
+      <c r="J119" s="34"/>
+      <c r="K119" s="34"/>
+      <c r="L119" s="34"/>
+      <c r="M119" s="66"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="66">
+      <c r="A120" s="65">
         <v>2</v>
       </c>
-      <c r="B120" s="35" t="s">
+      <c r="B120" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="C120" s="35" t="s">
+      <c r="C120" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="D120" s="35" t="s">
+      <c r="D120" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="E120" s="35" t="s">
+      <c r="E120" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="F120" s="37"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="45"/>
-      <c r="I120" s="63"/>
-      <c r="J120" s="63"/>
-      <c r="K120" s="63"/>
-      <c r="L120" s="63"/>
-      <c r="M120" s="67"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="62"/>
+      <c r="J120" s="62"/>
+      <c r="K120" s="62"/>
+      <c r="L120" s="62"/>
+      <c r="M120" s="66"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="28" t="s">
+      <c r="A121" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="B121" s="29" t="s">
+      <c r="B121" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
-      <c r="K121" s="32"/>
-      <c r="L121" s="29"/>
-      <c r="M121" s="33"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="28"/>
+      <c r="E121" s="28"/>
+      <c r="F121" s="28"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
+      <c r="K121" s="31"/>
+      <c r="L121" s="28"/>
+      <c r="M121" s="32"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="43">
+      <c r="A122" s="42">
         <v>1</v>
       </c>
-      <c r="B122" s="44" t="s">
+      <c r="B122" s="43" t="s">
         <v>277</v>
       </c>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36" t="s">
+      <c r="C122" s="35"/>
+      <c r="D122" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E122" s="36" t="s">
+      <c r="E122" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="F122" s="37"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="51"/>
-      <c r="I122" s="38"/>
-      <c r="J122" s="52"/>
-      <c r="K122" s="36"/>
-      <c r="L122" s="65"/>
-      <c r="M122" s="53"/>
+      <c r="F122" s="36"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="50"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="51"/>
+      <c r="K122" s="35"/>
+      <c r="L122" s="64"/>
+      <c r="M122" s="52"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="68">
+      <c r="A123" s="67">
         <v>2</v>
       </c>
-      <c r="B123" s="69" t="s">
+      <c r="B123" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="C123" s="70"/>
-      <c r="D123" s="70" t="s">
+      <c r="C123" s="69"/>
+      <c r="D123" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E123" s="70" t="s">
+      <c r="E123" s="69" t="s">
         <v>55</v>
       </c>
-      <c r="F123" s="71"/>
-      <c r="G123" s="72"/>
-      <c r="H123" s="73"/>
-      <c r="I123" s="72"/>
-      <c r="J123" s="72"/>
-      <c r="K123" s="72"/>
-      <c r="L123" s="74"/>
-      <c r="M123" s="75"/>
+      <c r="F123" s="70"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="72"/>
+      <c r="I123" s="71"/>
+      <c r="J123" s="71"/>
+      <c r="K123" s="71"/>
+      <c r="L123" s="73"/>
+      <c r="M123" s="74"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="76"/>
-      <c r="B124" s="77"/>
-      <c r="C124" s="78"/>
-      <c r="D124" s="78"/>
-      <c r="E124" s="78"/>
-      <c r="F124" s="79"/>
-      <c r="G124" s="80"/>
-      <c r="H124" s="81"/>
-      <c r="I124" s="82"/>
-      <c r="J124" s="83"/>
-      <c r="K124" s="83"/>
-      <c r="L124" s="83"/>
-      <c r="M124" s="83"/>
+      <c r="A124" s="75"/>
+      <c r="B124" s="76"/>
+      <c r="C124" s="77"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="79"/>
+      <c r="H124" s="80"/>
+      <c r="I124" s="81"/>
+      <c r="J124" s="82"/>
+      <c r="K124" s="82"/>
+      <c r="L124" s="82"/>
+      <c r="M124" s="82"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="76"/>
-      <c r="B125" s="84" t="s">
+      <c r="A125" s="75"/>
+      <c r="B125" s="83" t="s">
         <v>279</v>
       </c>
-      <c r="C125" s="78"/>
-      <c r="D125" s="78"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="79"/>
-      <c r="G125" s="80"/>
-      <c r="H125" s="80"/>
-      <c r="I125" s="85"/>
-      <c r="J125" s="78"/>
-      <c r="K125" s="80"/>
-      <c r="L125" s="80"/>
-      <c r="M125" s="80"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="77"/>
+      <c r="E125" s="77"/>
+      <c r="F125" s="78"/>
+      <c r="G125" s="79"/>
+      <c r="H125" s="79"/>
+      <c r="I125" s="84"/>
+      <c r="J125" s="77"/>
+      <c r="K125" s="79"/>
+      <c r="L125" s="79"/>
+      <c r="M125" s="79"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="5"/>
-      <c r="B126" s="18" t="s">
+      <c r="A126" s="4"/>
+      <c r="B126" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="C126" s="18"/>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="86"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="85"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="10"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="86"/>
+      <c r="A127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="85"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="10"/>
-      <c r="B128" s="10" t="s">
+      <c r="A128" s="9"/>
+      <c r="B128" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10" t="s">
+      <c r="C128" s="9"/>
+      <c r="D128" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="87"/>
-      <c r="G128" s="88"/>
-      <c r="H128" s="88"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="86"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="86"/>
+      <c r="G128" s="87"/>
+      <c r="H128" s="87"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="85"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="10"/>
-      <c r="B129" s="89" t="s">
+      <c r="A129" s="9"/>
+      <c r="B129" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="89" t="s">
+      <c r="C129" s="9"/>
+      <c r="D129" s="88" t="s">
         <v>283</v>
       </c>
-      <c r="E129" s="10"/>
-      <c r="F129" s="87"/>
-      <c r="G129" s="88"/>
-      <c r="H129" s="88"/>
-      <c r="I129" s="89" t="s">
+      <c r="E129" s="9"/>
+      <c r="F129" s="86"/>
+      <c r="G129" s="87"/>
+      <c r="H129" s="87"/>
+      <c r="I129" s="88" t="s">
         <v>284</v>
       </c>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="5"/>
-      <c r="M129" s="86"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="85"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="10"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="89" t="s">
+      <c r="A130" s="9"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="88" t="s">
         <v>285</v>
       </c>
-      <c r="E130" s="10"/>
-      <c r="F130" s="87"/>
-      <c r="G130" s="88"/>
-      <c r="H130" s="88"/>
-      <c r="I130" s="89" t="s">
+      <c r="E130" s="9"/>
+      <c r="F130" s="86"/>
+      <c r="G130" s="87"/>
+      <c r="H130" s="87"/>
+      <c r="I130" s="88" t="s">
         <v>286</v>
       </c>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="86"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="85"/>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="90"/>
-      <c r="C131" s="91"/>
-      <c r="D131" s="91"/>
-      <c r="E131" s="91"/>
-      <c r="F131" s="92"/>
+      <c r="B131" s="89"/>
+      <c r="C131" s="90"/>
+      <c r="D131" s="90"/>
+      <c r="E131" s="90"/>
+      <c r="F131" s="91"/>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="90"/>
-      <c r="C132" s="91"/>
-      <c r="D132" s="91"/>
-      <c r="E132" s="91"/>
-      <c r="F132" s="92"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="90"/>
+      <c r="D132" s="90"/>
+      <c r="E132" s="90"/>
+      <c r="F132" s="91"/>
     </row>
     <row r="133" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B133" s="90"/>
-      <c r="C133" s="91"/>
-      <c r="D133" s="91"/>
-      <c r="E133" s="91"/>
-      <c r="F133" s="92"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="90"/>
+      <c r="D133" s="90"/>
+      <c r="E133" s="90"/>
+      <c r="F133" s="91"/>
     </row>
     <row r="134" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B134" s="90"/>
-      <c r="C134" s="91"/>
-      <c r="D134" s="91"/>
-      <c r="E134" s="91"/>
-      <c r="F134" s="92"/>
+      <c r="B134" s="89"/>
+      <c r="C134" s="90"/>
+      <c r="D134" s="90"/>
+      <c r="E134" s="90"/>
+      <c r="F134" s="91"/>
     </row>
     <row r="135" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B135" s="90"/>
-      <c r="C135" s="91"/>
-      <c r="D135" s="91"/>
-      <c r="E135" s="91"/>
-      <c r="F135" s="92"/>
+      <c r="B135" s="89"/>
+      <c r="C135" s="90"/>
+      <c r="D135" s="90"/>
+      <c r="E135" s="90"/>
+      <c r="F135" s="91"/>
     </row>
     <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="90"/>
-      <c r="C136" s="91"/>
-      <c r="D136" s="91"/>
-      <c r="E136" s="91"/>
-      <c r="F136" s="92"/>
+      <c r="B136" s="89"/>
+      <c r="C136" s="90"/>
+      <c r="D136" s="90"/>
+      <c r="E136" s="90"/>
+      <c r="F136" s="91"/>
     </row>
     <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="90"/>
-      <c r="C137" s="91"/>
-      <c r="D137" s="91"/>
-      <c r="E137" s="91"/>
-      <c r="F137" s="92"/>
+      <c r="B137" s="89"/>
+      <c r="C137" s="90"/>
+      <c r="D137" s="90"/>
+      <c r="E137" s="90"/>
+      <c r="F137" s="91"/>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="90"/>
-      <c r="C138" s="91"/>
-      <c r="D138" s="91"/>
-      <c r="E138" s="91"/>
-      <c r="F138" s="92"/>
+      <c r="B138" s="89"/>
+      <c r="C138" s="90"/>
+      <c r="D138" s="90"/>
+      <c r="E138" s="90"/>
+      <c r="F138" s="91"/>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="90"/>
-      <c r="C139" s="91"/>
-      <c r="D139" s="91"/>
-      <c r="E139" s="91"/>
-      <c r="F139" s="92"/>
+      <c r="B139" s="89"/>
+      <c r="C139" s="90"/>
+      <c r="D139" s="90"/>
+      <c r="E139" s="90"/>
+      <c r="F139" s="91"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B140" s="90"/>
-      <c r="C140" s="91"/>
-      <c r="D140" s="91"/>
-      <c r="E140" s="91"/>
-      <c r="F140" s="92"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="90"/>
+      <c r="D140" s="90"/>
+      <c r="E140" s="90"/>
+      <c r="F140" s="91"/>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B141" s="90"/>
-      <c r="C141" s="91"/>
-      <c r="D141" s="91"/>
-      <c r="E141" s="91"/>
-      <c r="F141" s="92"/>
+      <c r="B141" s="89"/>
+      <c r="C141" s="90"/>
+      <c r="D141" s="90"/>
+      <c r="E141" s="90"/>
+      <c r="F141" s="91"/>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B142" s="90"/>
-      <c r="C142" s="91"/>
-      <c r="D142" s="91"/>
-      <c r="E142" s="91"/>
-      <c r="F142" s="92"/>
+      <c r="B142" s="89"/>
+      <c r="C142" s="90"/>
+      <c r="D142" s="90"/>
+      <c r="E142" s="90"/>
+      <c r="F142" s="91"/>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B143" s="90"/>
-      <c r="C143" s="91"/>
-      <c r="D143" s="91"/>
-      <c r="E143" s="91"/>
-      <c r="F143" s="92"/>
+      <c r="B143" s="89"/>
+      <c r="C143" s="90"/>
+      <c r="D143" s="90"/>
+      <c r="E143" s="90"/>
+      <c r="F143" s="91"/>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B144" s="90"/>
-      <c r="C144" s="91"/>
-      <c r="D144" s="91"/>
-      <c r="E144" s="91"/>
-      <c r="F144" s="92"/>
+      <c r="B144" s="89"/>
+      <c r="C144" s="90"/>
+      <c r="D144" s="90"/>
+      <c r="E144" s="90"/>
+      <c r="F144" s="91"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B145" s="90"/>
-      <c r="C145" s="91"/>
-      <c r="D145" s="91"/>
-      <c r="E145" s="91"/>
-      <c r="F145" s="92"/>
+      <c r="B145" s="89"/>
+      <c r="C145" s="90"/>
+      <c r="D145" s="90"/>
+      <c r="E145" s="90"/>
+      <c r="F145" s="91"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B146" s="90"/>
-      <c r="C146" s="91"/>
-      <c r="D146" s="91"/>
-      <c r="E146" s="91"/>
-      <c r="F146" s="92"/>
+      <c r="B146" s="89"/>
+      <c r="C146" s="90"/>
+      <c r="D146" s="90"/>
+      <c r="E146" s="90"/>
+      <c r="F146" s="91"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B147" s="90"/>
-      <c r="C147" s="91"/>
-      <c r="D147" s="91"/>
-      <c r="E147" s="91"/>
-      <c r="F147" s="92"/>
+      <c r="B147" s="89"/>
+      <c r="C147" s="90"/>
+      <c r="D147" s="90"/>
+      <c r="E147" s="90"/>
+      <c r="F147" s="91"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B148" s="90"/>
-      <c r="C148" s="91"/>
-      <c r="D148" s="91"/>
-      <c r="E148" s="91"/>
-      <c r="F148" s="92"/>
+      <c r="B148" s="89"/>
+      <c r="C148" s="90"/>
+      <c r="D148" s="90"/>
+      <c r="E148" s="90"/>
+      <c r="F148" s="91"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B149" s="90"/>
-      <c r="C149" s="91"/>
-      <c r="D149" s="91"/>
-      <c r="E149" s="91"/>
-      <c r="F149" s="92"/>
+      <c r="B149" s="89"/>
+      <c r="C149" s="90"/>
+      <c r="D149" s="90"/>
+      <c r="E149" s="90"/>
+      <c r="F149" s="91"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B150" s="90"/>
-      <c r="C150" s="91"/>
-      <c r="D150" s="91"/>
-      <c r="E150" s="91"/>
-      <c r="F150" s="92"/>
+      <c r="B150" s="89"/>
+      <c r="C150" s="90"/>
+      <c r="D150" s="90"/>
+      <c r="E150" s="90"/>
+      <c r="F150" s="91"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B151" s="90"/>
-      <c r="C151" s="91"/>
-      <c r="D151" s="91"/>
-      <c r="E151" s="91"/>
-      <c r="F151" s="92"/>
+      <c r="B151" s="89"/>
+      <c r="C151" s="90"/>
+      <c r="D151" s="90"/>
+      <c r="E151" s="90"/>
+      <c r="F151" s="91"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="90"/>
-      <c r="C152" s="91"/>
-      <c r="D152" s="91"/>
-      <c r="E152" s="91"/>
-      <c r="F152" s="92"/>
+      <c r="B152" s="89"/>
+      <c r="C152" s="90"/>
+      <c r="D152" s="90"/>
+      <c r="E152" s="90"/>
+      <c r="F152" s="91"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B153" s="90"/>
-      <c r="C153" s="91"/>
-      <c r="D153" s="91"/>
-      <c r="E153" s="91"/>
-      <c r="F153" s="92"/>
+      <c r="B153" s="89"/>
+      <c r="C153" s="90"/>
+      <c r="D153" s="90"/>
+      <c r="E153" s="90"/>
+      <c r="F153" s="91"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B154" s="90"/>
-      <c r="C154" s="91"/>
-      <c r="D154" s="91"/>
-      <c r="E154" s="91"/>
-      <c r="F154" s="92"/>
+      <c r="B154" s="89"/>
+      <c r="C154" s="90"/>
+      <c r="D154" s="90"/>
+      <c r="E154" s="90"/>
+      <c r="F154" s="91"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B155" s="90"/>
-      <c r="C155" s="91"/>
-      <c r="D155" s="91"/>
-      <c r="E155" s="91"/>
-      <c r="F155" s="92"/>
+      <c r="B155" s="89"/>
+      <c r="C155" s="90"/>
+      <c r="D155" s="90"/>
+      <c r="E155" s="90"/>
+      <c r="F155" s="91"/>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B156" s="90"/>
-      <c r="C156" s="91"/>
-      <c r="D156" s="91"/>
-      <c r="E156" s="91"/>
-      <c r="F156" s="92"/>
+      <c r="B156" s="89"/>
+      <c r="C156" s="90"/>
+      <c r="D156" s="90"/>
+      <c r="E156" s="90"/>
+      <c r="F156" s="91"/>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B157" s="90"/>
-      <c r="C157" s="91"/>
-      <c r="D157" s="91"/>
-      <c r="E157" s="91"/>
-      <c r="F157" s="92"/>
+      <c r="B157" s="89"/>
+      <c r="C157" s="90"/>
+      <c r="D157" s="90"/>
+      <c r="E157" s="90"/>
+      <c r="F157" s="91"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B158" s="90"/>
-      <c r="C158" s="91"/>
-      <c r="D158" s="91"/>
-      <c r="E158" s="91"/>
-      <c r="F158" s="92"/>
+      <c r="B158" s="89"/>
+      <c r="C158" s="90"/>
+      <c r="D158" s="90"/>
+      <c r="E158" s="90"/>
+      <c r="F158" s="91"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B159" s="90"/>
-      <c r="C159" s="91"/>
-      <c r="D159" s="91"/>
-      <c r="E159" s="91"/>
-      <c r="F159" s="92"/>
+      <c r="B159" s="89"/>
+      <c r="C159" s="90"/>
+      <c r="D159" s="90"/>
+      <c r="E159" s="90"/>
+      <c r="F159" s="91"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B160" s="90"/>
-      <c r="C160" s="91"/>
-      <c r="D160" s="91"/>
-      <c r="E160" s="91"/>
-      <c r="F160" s="92"/>
+      <c r="B160" s="89"/>
+      <c r="C160" s="90"/>
+      <c r="D160" s="90"/>
+      <c r="E160" s="90"/>
+      <c r="F160" s="91"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B161" s="90"/>
-      <c r="C161" s="91"/>
-      <c r="D161" s="91"/>
-      <c r="E161" s="91"/>
-      <c r="F161" s="92"/>
+      <c r="B161" s="89"/>
+      <c r="C161" s="90"/>
+      <c r="D161" s="90"/>
+      <c r="E161" s="90"/>
+      <c r="F161" s="91"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B162" s="90"/>
-      <c r="C162" s="91"/>
-      <c r="D162" s="91"/>
-      <c r="E162" s="91"/>
-      <c r="F162" s="92"/>
+      <c r="B162" s="89"/>
+      <c r="C162" s="90"/>
+      <c r="D162" s="90"/>
+      <c r="E162" s="90"/>
+      <c r="F162" s="91"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B163" s="90"/>
-      <c r="C163" s="91"/>
-      <c r="D163" s="91"/>
-      <c r="E163" s="91"/>
-      <c r="F163" s="92"/>
+      <c r="B163" s="89"/>
+      <c r="C163" s="90"/>
+      <c r="D163" s="90"/>
+      <c r="E163" s="90"/>
+      <c r="F163" s="91"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B164" s="90"/>
-      <c r="C164" s="91"/>
-      <c r="D164" s="91"/>
-      <c r="E164" s="91"/>
-      <c r="F164" s="92"/>
+      <c r="B164" s="89"/>
+      <c r="C164" s="90"/>
+      <c r="D164" s="90"/>
+      <c r="E164" s="90"/>
+      <c r="F164" s="91"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B165" s="90"/>
-      <c r="C165" s="91"/>
-      <c r="D165" s="91"/>
-      <c r="E165" s="91"/>
-      <c r="F165" s="92"/>
+      <c r="B165" s="89"/>
+      <c r="C165" s="90"/>
+      <c r="D165" s="90"/>
+      <c r="E165" s="90"/>
+      <c r="F165" s="91"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B166" s="90"/>
-      <c r="C166" s="91"/>
-      <c r="D166" s="91"/>
-      <c r="E166" s="91"/>
-      <c r="F166" s="92"/>
+      <c r="B166" s="89"/>
+      <c r="C166" s="90"/>
+      <c r="D166" s="90"/>
+      <c r="E166" s="90"/>
+      <c r="F166" s="91"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B167" s="90"/>
-      <c r="C167" s="91"/>
-      <c r="D167" s="91"/>
-      <c r="E167" s="91"/>
-      <c r="F167" s="92"/>
+      <c r="B167" s="89"/>
+      <c r="C167" s="90"/>
+      <c r="D167" s="90"/>
+      <c r="E167" s="90"/>
+      <c r="F167" s="91"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B168" s="90"/>
-      <c r="C168" s="91"/>
-      <c r="D168" s="91"/>
-      <c r="E168" s="91"/>
-      <c r="F168" s="92"/>
+      <c r="B168" s="89"/>
+      <c r="C168" s="90"/>
+      <c r="D168" s="90"/>
+      <c r="E168" s="90"/>
+      <c r="F168" s="91"/>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B169" s="90"/>
-      <c r="C169" s="91"/>
-      <c r="D169" s="91"/>
-      <c r="E169" s="91"/>
-      <c r="F169" s="92"/>
+      <c r="B169" s="89"/>
+      <c r="C169" s="90"/>
+      <c r="D169" s="90"/>
+      <c r="E169" s="90"/>
+      <c r="F169" s="91"/>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B170" s="90"/>
-      <c r="C170" s="91"/>
-      <c r="D170" s="91"/>
-      <c r="E170" s="91"/>
-      <c r="F170" s="92"/>
+      <c r="B170" s="89"/>
+      <c r="C170" s="90"/>
+      <c r="D170" s="90"/>
+      <c r="E170" s="90"/>
+      <c r="F170" s="91"/>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B171" s="90"/>
-      <c r="C171" s="91"/>
-      <c r="D171" s="91"/>
-      <c r="E171" s="91"/>
-      <c r="F171" s="92"/>
+      <c r="B171" s="89"/>
+      <c r="C171" s="90"/>
+      <c r="D171" s="90"/>
+      <c r="E171" s="90"/>
+      <c r="F171" s="91"/>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B172" s="90"/>
-      <c r="C172" s="91"/>
-      <c r="D172" s="91"/>
-      <c r="E172" s="91"/>
-      <c r="F172" s="92"/>
+      <c r="B172" s="89"/>
+      <c r="C172" s="90"/>
+      <c r="D172" s="90"/>
+      <c r="E172" s="90"/>
+      <c r="F172" s="91"/>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B173" s="90"/>
-      <c r="C173" s="91"/>
-      <c r="D173" s="91"/>
-      <c r="E173" s="91"/>
-      <c r="F173" s="92"/>
+      <c r="B173" s="89"/>
+      <c r="C173" s="90"/>
+      <c r="D173" s="90"/>
+      <c r="E173" s="90"/>
+      <c r="F173" s="91"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B174" s="90"/>
-      <c r="C174" s="91"/>
-      <c r="D174" s="91"/>
-      <c r="E174" s="91"/>
-      <c r="F174" s="92"/>
+      <c r="B174" s="89"/>
+      <c r="C174" s="90"/>
+      <c r="D174" s="90"/>
+      <c r="E174" s="90"/>
+      <c r="F174" s="91"/>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B175" s="90"/>
-      <c r="C175" s="91"/>
-      <c r="D175" s="91"/>
-      <c r="E175" s="91"/>
-      <c r="F175" s="92"/>
+      <c r="B175" s="89"/>
+      <c r="C175" s="90"/>
+      <c r="D175" s="90"/>
+      <c r="E175" s="90"/>
+      <c r="F175" s="91"/>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B176" s="90"/>
-      <c r="C176" s="91"/>
-      <c r="D176" s="91"/>
-      <c r="E176" s="91"/>
-      <c r="F176" s="92"/>
+      <c r="B176" s="89"/>
+      <c r="C176" s="90"/>
+      <c r="D176" s="90"/>
+      <c r="E176" s="90"/>
+      <c r="F176" s="91"/>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B177" s="90"/>
-      <c r="C177" s="91"/>
-      <c r="D177" s="91"/>
-      <c r="E177" s="91"/>
-      <c r="F177" s="92"/>
+      <c r="B177" s="89"/>
+      <c r="C177" s="90"/>
+      <c r="D177" s="90"/>
+      <c r="E177" s="90"/>
+      <c r="F177" s="91"/>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B178" s="90"/>
-      <c r="C178" s="91"/>
-      <c r="D178" s="91"/>
-      <c r="E178" s="91"/>
-      <c r="F178" s="92"/>
+      <c r="B178" s="89"/>
+      <c r="C178" s="90"/>
+      <c r="D178" s="90"/>
+      <c r="E178" s="90"/>
+      <c r="F178" s="91"/>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B179" s="90"/>
-      <c r="C179" s="91"/>
-      <c r="D179" s="91"/>
-      <c r="E179" s="91"/>
-      <c r="F179" s="92"/>
+      <c r="B179" s="89"/>
+      <c r="C179" s="90"/>
+      <c r="D179" s="90"/>
+      <c r="E179" s="90"/>
+      <c r="F179" s="91"/>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B180" s="90"/>
-      <c r="C180" s="91"/>
-      <c r="D180" s="91"/>
-      <c r="E180" s="91"/>
-      <c r="F180" s="92"/>
+      <c r="B180" s="89"/>
+      <c r="C180" s="90"/>
+      <c r="D180" s="90"/>
+      <c r="E180" s="90"/>
+      <c r="F180" s="91"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B181" s="90"/>
-      <c r="C181" s="91"/>
-      <c r="D181" s="91"/>
-      <c r="E181" s="91"/>
-      <c r="F181" s="92"/>
+      <c r="B181" s="89"/>
+      <c r="C181" s="90"/>
+      <c r="D181" s="90"/>
+      <c r="E181" s="90"/>
+      <c r="F181" s="91"/>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B182" s="90"/>
-      <c r="C182" s="91"/>
-      <c r="D182" s="91"/>
-      <c r="E182" s="91"/>
-      <c r="F182" s="92"/>
+      <c r="B182" s="89"/>
+      <c r="C182" s="90"/>
+      <c r="D182" s="90"/>
+      <c r="E182" s="90"/>
+      <c r="F182" s="91"/>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B183" s="90"/>
-      <c r="C183" s="91"/>
-      <c r="D183" s="91"/>
-      <c r="E183" s="91"/>
-      <c r="F183" s="92"/>
+      <c r="B183" s="89"/>
+      <c r="C183" s="90"/>
+      <c r="D183" s="90"/>
+      <c r="E183" s="90"/>
+      <c r="F183" s="91"/>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B184" s="90"/>
-      <c r="C184" s="91"/>
-      <c r="D184" s="91"/>
-      <c r="E184" s="91"/>
-      <c r="F184" s="92"/>
+      <c r="B184" s="89"/>
+      <c r="C184" s="90"/>
+      <c r="D184" s="90"/>
+      <c r="E184" s="90"/>
+      <c r="F184" s="91"/>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B185" s="90"/>
-      <c r="C185" s="91"/>
-      <c r="D185" s="91"/>
-      <c r="E185" s="91"/>
-      <c r="F185" s="92"/>
+      <c r="B185" s="89"/>
+      <c r="C185" s="90"/>
+      <c r="D185" s="90"/>
+      <c r="E185" s="90"/>
+      <c r="F185" s="91"/>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B186" s="90"/>
-      <c r="C186" s="91"/>
-      <c r="D186" s="91"/>
-      <c r="E186" s="91"/>
-      <c r="F186" s="92"/>
+      <c r="B186" s="89"/>
+      <c r="C186" s="90"/>
+      <c r="D186" s="90"/>
+      <c r="E186" s="90"/>
+      <c r="F186" s="91"/>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B187" s="90"/>
-      <c r="C187" s="91"/>
-      <c r="D187" s="91"/>
-      <c r="E187" s="91"/>
-      <c r="F187" s="92"/>
+      <c r="B187" s="89"/>
+      <c r="C187" s="90"/>
+      <c r="D187" s="90"/>
+      <c r="E187" s="90"/>
+      <c r="F187" s="91"/>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B188" s="90"/>
-      <c r="C188" s="91"/>
-      <c r="D188" s="91"/>
-      <c r="E188" s="91"/>
-      <c r="F188" s="92"/>
+      <c r="B188" s="89"/>
+      <c r="C188" s="90"/>
+      <c r="D188" s="90"/>
+      <c r="E188" s="90"/>
+      <c r="F188" s="91"/>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B189" s="90"/>
-      <c r="C189" s="91"/>
-      <c r="D189" s="91"/>
-      <c r="E189" s="91"/>
-      <c r="F189" s="92"/>
+      <c r="B189" s="89"/>
+      <c r="C189" s="90"/>
+      <c r="D189" s="90"/>
+      <c r="E189" s="90"/>
+      <c r="F189" s="91"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B190" s="90"/>
-      <c r="C190" s="91"/>
-      <c r="D190" s="91"/>
-      <c r="E190" s="91"/>
-      <c r="F190" s="92"/>
+      <c r="B190" s="89"/>
+      <c r="C190" s="90"/>
+      <c r="D190" s="90"/>
+      <c r="E190" s="90"/>
+      <c r="F190" s="91"/>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B191" s="90"/>
-      <c r="C191" s="91"/>
-      <c r="D191" s="91"/>
-      <c r="E191" s="91"/>
-      <c r="F191" s="92"/>
+      <c r="B191" s="89"/>
+      <c r="C191" s="90"/>
+      <c r="D191" s="90"/>
+      <c r="E191" s="90"/>
+      <c r="F191" s="91"/>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B192" s="90"/>
-      <c r="C192" s="91"/>
-      <c r="D192" s="91"/>
-      <c r="E192" s="91"/>
-      <c r="F192" s="92"/>
+      <c r="B192" s="89"/>
+      <c r="C192" s="90"/>
+      <c r="D192" s="90"/>
+      <c r="E192" s="90"/>
+      <c r="F192" s="91"/>
     </row>
     <row r="193" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B193" s="90"/>
-      <c r="C193" s="91"/>
-      <c r="D193" s="91"/>
-      <c r="E193" s="91"/>
-      <c r="F193" s="92"/>
+      <c r="B193" s="89"/>
+      <c r="C193" s="90"/>
+      <c r="D193" s="90"/>
+      <c r="E193" s="90"/>
+      <c r="F193" s="91"/>
     </row>
     <row r="194" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B194" s="90"/>
-      <c r="C194" s="91"/>
-      <c r="D194" s="91"/>
-      <c r="E194" s="91"/>
-      <c r="F194" s="92"/>
+      <c r="B194" s="89"/>
+      <c r="C194" s="90"/>
+      <c r="D194" s="90"/>
+      <c r="E194" s="90"/>
+      <c r="F194" s="91"/>
     </row>
     <row r="195" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B195" s="90"/>
-      <c r="C195" s="91"/>
-      <c r="D195" s="91"/>
-      <c r="E195" s="91"/>
-      <c r="F195" s="92"/>
+      <c r="B195" s="89"/>
+      <c r="C195" s="90"/>
+      <c r="D195" s="90"/>
+      <c r="E195" s="90"/>
+      <c r="F195" s="91"/>
     </row>
     <row r="196" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B196" s="90"/>
-      <c r="C196" s="91"/>
-      <c r="D196" s="91"/>
-      <c r="E196" s="91"/>
-      <c r="F196" s="92"/>
+      <c r="B196" s="89"/>
+      <c r="C196" s="90"/>
+      <c r="D196" s="90"/>
+      <c r="E196" s="90"/>
+      <c r="F196" s="91"/>
     </row>
     <row r="197" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B197" s="90"/>
-      <c r="C197" s="91"/>
-      <c r="D197" s="91"/>
-      <c r="E197" s="91"/>
-      <c r="F197" s="92"/>
+      <c r="B197" s="89"/>
+      <c r="C197" s="90"/>
+      <c r="D197" s="90"/>
+      <c r="E197" s="90"/>
+      <c r="F197" s="91"/>
     </row>
     <row r="198" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B198" s="90"/>
-      <c r="C198" s="91"/>
-      <c r="D198" s="91"/>
-      <c r="E198" s="91"/>
-      <c r="F198" s="92"/>
+      <c r="B198" s="89"/>
+      <c r="C198" s="90"/>
+      <c r="D198" s="90"/>
+      <c r="E198" s="90"/>
+      <c r="F198" s="91"/>
     </row>
     <row r="199" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B199" s="90"/>
-      <c r="C199" s="91"/>
-      <c r="D199" s="91"/>
-      <c r="E199" s="91"/>
-      <c r="F199" s="92"/>
+      <c r="B199" s="89"/>
+      <c r="C199" s="90"/>
+      <c r="D199" s="90"/>
+      <c r="E199" s="90"/>
+      <c r="F199" s="91"/>
     </row>
     <row r="200" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B200" s="90"/>
-      <c r="C200" s="91"/>
-      <c r="D200" s="91"/>
-      <c r="E200" s="91"/>
-      <c r="F200" s="92"/>
+      <c r="B200" s="89"/>
+      <c r="C200" s="90"/>
+      <c r="D200" s="90"/>
+      <c r="E200" s="90"/>
+      <c r="F200" s="91"/>
     </row>
     <row r="201" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B201" s="90"/>
-      <c r="C201" s="91"/>
-      <c r="D201" s="91"/>
-      <c r="E201" s="91"/>
-      <c r="F201" s="92"/>
+      <c r="B201" s="89"/>
+      <c r="C201" s="90"/>
+      <c r="D201" s="90"/>
+      <c r="E201" s="90"/>
+      <c r="F201" s="91"/>
     </row>
     <row r="202" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B202" s="90"/>
-      <c r="C202" s="91"/>
-      <c r="D202" s="91"/>
-      <c r="E202" s="91"/>
-      <c r="F202" s="92"/>
+      <c r="B202" s="89"/>
+      <c r="C202" s="90"/>
+      <c r="D202" s="90"/>
+      <c r="E202" s="90"/>
+      <c r="F202" s="91"/>
     </row>
     <row r="203" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B203" s="90"/>
-      <c r="C203" s="91"/>
-      <c r="D203" s="91"/>
-      <c r="E203" s="91"/>
-      <c r="F203" s="92"/>
+      <c r="B203" s="89"/>
+      <c r="C203" s="90"/>
+      <c r="D203" s="90"/>
+      <c r="E203" s="90"/>
+      <c r="F203" s="91"/>
     </row>
     <row r="204" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B204" s="90"/>
-      <c r="C204" s="91"/>
-      <c r="D204" s="91"/>
-      <c r="E204" s="91"/>
-      <c r="F204" s="92"/>
+      <c r="B204" s="89"/>
+      <c r="C204" s="90"/>
+      <c r="D204" s="90"/>
+      <c r="E204" s="90"/>
+      <c r="F204" s="91"/>
     </row>
     <row r="205" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B205" s="90"/>
-      <c r="C205" s="91"/>
-      <c r="D205" s="91"/>
-      <c r="E205" s="91"/>
-      <c r="F205" s="92"/>
+      <c r="B205" s="89"/>
+      <c r="C205" s="90"/>
+      <c r="D205" s="90"/>
+      <c r="E205" s="90"/>
+      <c r="F205" s="91"/>
     </row>
     <row r="206" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B206" s="90"/>
-      <c r="C206" s="91"/>
-      <c r="D206" s="91"/>
-      <c r="E206" s="91"/>
-      <c r="F206" s="92"/>
+      <c r="B206" s="89"/>
+      <c r="C206" s="90"/>
+      <c r="D206" s="90"/>
+      <c r="E206" s="90"/>
+      <c r="F206" s="91"/>
     </row>
     <row r="207" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B207" s="90"/>
-      <c r="C207" s="91"/>
-      <c r="D207" s="91"/>
-      <c r="E207" s="91"/>
-      <c r="F207" s="92"/>
+      <c r="B207" s="89"/>
+      <c r="C207" s="90"/>
+      <c r="D207" s="90"/>
+      <c r="E207" s="90"/>
+      <c r="F207" s="91"/>
     </row>
     <row r="208" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B208" s="90"/>
-      <c r="C208" s="91"/>
-      <c r="D208" s="91"/>
-      <c r="E208" s="91"/>
-      <c r="F208" s="92"/>
+      <c r="B208" s="89"/>
+      <c r="C208" s="90"/>
+      <c r="D208" s="90"/>
+      <c r="E208" s="90"/>
+      <c r="F208" s="91"/>
     </row>
     <row r="209" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B209" s="90"/>
-      <c r="C209" s="91"/>
-      <c r="D209" s="91"/>
-      <c r="E209" s="91"/>
-      <c r="F209" s="92"/>
+      <c r="B209" s="89"/>
+      <c r="C209" s="90"/>
+      <c r="D209" s="90"/>
+      <c r="E209" s="90"/>
+      <c r="F209" s="91"/>
     </row>
     <row r="210" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B210" s="90"/>
-      <c r="C210" s="91"/>
-      <c r="D210" s="91"/>
-      <c r="E210" s="91"/>
-      <c r="F210" s="92"/>
+      <c r="B210" s="89"/>
+      <c r="C210" s="90"/>
+      <c r="D210" s="90"/>
+      <c r="E210" s="90"/>
+      <c r="F210" s="91"/>
     </row>
     <row r="211" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B211" s="90"/>
-      <c r="C211" s="91"/>
-      <c r="D211" s="91"/>
-      <c r="E211" s="91"/>
-      <c r="F211" s="92"/>
+      <c r="B211" s="89"/>
+      <c r="C211" s="90"/>
+      <c r="D211" s="90"/>
+      <c r="E211" s="90"/>
+      <c r="F211" s="91"/>
     </row>
     <row r="212" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B212" s="90"/>
-      <c r="C212" s="91"/>
-      <c r="D212" s="91"/>
-      <c r="E212" s="91"/>
-      <c r="F212" s="92"/>
+      <c r="B212" s="89"/>
+      <c r="C212" s="90"/>
+      <c r="D212" s="90"/>
+      <c r="E212" s="90"/>
+      <c r="F212" s="91"/>
     </row>
     <row r="213" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B213" s="90"/>
-      <c r="C213" s="91"/>
-      <c r="D213" s="91"/>
-      <c r="E213" s="91"/>
-      <c r="F213" s="92"/>
+      <c r="B213" s="89"/>
+      <c r="C213" s="90"/>
+      <c r="D213" s="90"/>
+      <c r="E213" s="90"/>
+      <c r="F213" s="91"/>
     </row>
     <row r="214" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B214" s="90"/>
-      <c r="C214" s="91"/>
-      <c r="D214" s="91"/>
-      <c r="E214" s="91"/>
-      <c r="F214" s="92"/>
+      <c r="B214" s="89"/>
+      <c r="C214" s="90"/>
+      <c r="D214" s="90"/>
+      <c r="E214" s="90"/>
+      <c r="F214" s="91"/>
     </row>
     <row r="215" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B215" s="90"/>
-      <c r="C215" s="91"/>
-      <c r="D215" s="91"/>
-      <c r="E215" s="91"/>
-      <c r="F215" s="92"/>
+      <c r="B215" s="89"/>
+      <c r="C215" s="90"/>
+      <c r="D215" s="90"/>
+      <c r="E215" s="90"/>
+      <c r="F215" s="91"/>
     </row>
     <row r="216" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B216" s="90"/>
-      <c r="C216" s="91"/>
-      <c r="D216" s="91"/>
-      <c r="E216" s="91"/>
-      <c r="F216" s="92"/>
+      <c r="B216" s="89"/>
+      <c r="C216" s="90"/>
+      <c r="D216" s="90"/>
+      <c r="E216" s="90"/>
+      <c r="F216" s="91"/>
     </row>
     <row r="217" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B217" s="90"/>
-      <c r="C217" s="91"/>
-      <c r="D217" s="91"/>
-      <c r="E217" s="91"/>
-      <c r="F217" s="92"/>
+      <c r="B217" s="89"/>
+      <c r="C217" s="90"/>
+      <c r="D217" s="90"/>
+      <c r="E217" s="90"/>
+      <c r="F217" s="91"/>
     </row>
     <row r="218" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B218" s="90"/>
-      <c r="C218" s="91"/>
-      <c r="D218" s="91"/>
-      <c r="E218" s="91"/>
-      <c r="F218" s="92"/>
+      <c r="B218" s="89"/>
+      <c r="C218" s="90"/>
+      <c r="D218" s="90"/>
+      <c r="E218" s="90"/>
+      <c r="F218" s="91"/>
     </row>
     <row r="219" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B219" s="90"/>
-      <c r="C219" s="91"/>
-      <c r="D219" s="91"/>
-      <c r="E219" s="91"/>
-      <c r="F219" s="92"/>
+      <c r="B219" s="89"/>
+      <c r="C219" s="90"/>
+      <c r="D219" s="90"/>
+      <c r="E219" s="90"/>
+      <c r="F219" s="91"/>
     </row>
     <row r="220" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B220" s="90"/>
-      <c r="C220" s="91"/>
-      <c r="D220" s="91"/>
-      <c r="E220" s="91"/>
-      <c r="F220" s="92"/>
+      <c r="B220" s="89"/>
+      <c r="C220" s="90"/>
+      <c r="D220" s="90"/>
+      <c r="E220" s="90"/>
+      <c r="F220" s="91"/>
     </row>
     <row r="221" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B221" s="90"/>
-      <c r="C221" s="91"/>
-      <c r="D221" s="91"/>
-      <c r="E221" s="91"/>
-      <c r="F221" s="92"/>
+      <c r="B221" s="89"/>
+      <c r="C221" s="90"/>
+      <c r="D221" s="90"/>
+      <c r="E221" s="90"/>
+      <c r="F221" s="91"/>
     </row>
     <row r="222" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B222" s="90"/>
-      <c r="C222" s="91"/>
-      <c r="D222" s="91"/>
-      <c r="E222" s="91"/>
-      <c r="F222" s="92"/>
+      <c r="B222" s="89"/>
+      <c r="C222" s="90"/>
+      <c r="D222" s="90"/>
+      <c r="E222" s="90"/>
+      <c r="F222" s="91"/>
     </row>
     <row r="223" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B223" s="90"/>
-      <c r="C223" s="91"/>
-      <c r="D223" s="91"/>
-      <c r="E223" s="91"/>
-      <c r="F223" s="92"/>
+      <c r="B223" s="89"/>
+      <c r="C223" s="90"/>
+      <c r="D223" s="90"/>
+      <c r="E223" s="90"/>
+      <c r="F223" s="91"/>
     </row>
     <row r="224" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B224" s="90"/>
-      <c r="C224" s="91"/>
-      <c r="D224" s="91"/>
-      <c r="E224" s="91"/>
-      <c r="F224" s="92"/>
+      <c r="B224" s="89"/>
+      <c r="C224" s="90"/>
+      <c r="D224" s="90"/>
+      <c r="E224" s="90"/>
+      <c r="F224" s="91"/>
     </row>
     <row r="225" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B225" s="90"/>
-      <c r="C225" s="91"/>
-      <c r="D225" s="91"/>
-      <c r="E225" s="91"/>
-      <c r="F225" s="92"/>
+      <c r="B225" s="89"/>
+      <c r="C225" s="90"/>
+      <c r="D225" s="90"/>
+      <c r="E225" s="90"/>
+      <c r="F225" s="91"/>
     </row>
     <row r="226" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B226" s="90"/>
-      <c r="C226" s="91"/>
-      <c r="D226" s="91"/>
-      <c r="E226" s="91"/>
-      <c r="F226" s="92"/>
+      <c r="B226" s="89"/>
+      <c r="C226" s="90"/>
+      <c r="D226" s="90"/>
+      <c r="E226" s="90"/>
+      <c r="F226" s="91"/>
     </row>
     <row r="227" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B227" s="90"/>
-      <c r="C227" s="91"/>
-      <c r="D227" s="91"/>
-      <c r="E227" s="91"/>
-      <c r="F227" s="92"/>
+      <c r="B227" s="89"/>
+      <c r="C227" s="90"/>
+      <c r="D227" s="90"/>
+      <c r="E227" s="90"/>
+      <c r="F227" s="91"/>
     </row>
     <row r="228" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B228" s="90"/>
-      <c r="C228" s="91"/>
-      <c r="D228" s="91"/>
-      <c r="E228" s="91"/>
-      <c r="F228" s="92"/>
+      <c r="B228" s="89"/>
+      <c r="C228" s="90"/>
+      <c r="D228" s="90"/>
+      <c r="E228" s="90"/>
+      <c r="F228" s="91"/>
     </row>
     <row r="229" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B229" s="90"/>
-      <c r="C229" s="91"/>
-      <c r="D229" s="91"/>
-      <c r="E229" s="91"/>
-      <c r="F229" s="92"/>
+      <c r="B229" s="89"/>
+      <c r="C229" s="90"/>
+      <c r="D229" s="90"/>
+      <c r="E229" s="90"/>
+      <c r="F229" s="91"/>
     </row>
     <row r="230" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B230" s="90"/>
-      <c r="C230" s="91"/>
-      <c r="D230" s="91"/>
-      <c r="E230" s="91"/>
-      <c r="F230" s="92"/>
+      <c r="B230" s="89"/>
+      <c r="C230" s="90"/>
+      <c r="D230" s="90"/>
+      <c r="E230" s="90"/>
+      <c r="F230" s="91"/>
     </row>
     <row r="231" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B231" s="90"/>
-      <c r="C231" s="91"/>
-      <c r="D231" s="91"/>
-      <c r="E231" s="91"/>
-      <c r="F231" s="92"/>
+      <c r="B231" s="89"/>
+      <c r="C231" s="90"/>
+      <c r="D231" s="90"/>
+      <c r="E231" s="90"/>
+      <c r="F231" s="91"/>
     </row>
     <row r="232" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B232" s="90"/>
-      <c r="C232" s="91"/>
-      <c r="D232" s="91"/>
-      <c r="E232" s="91"/>
-      <c r="F232" s="92"/>
+      <c r="B232" s="89"/>
+      <c r="C232" s="90"/>
+      <c r="D232" s="90"/>
+      <c r="E232" s="90"/>
+      <c r="F232" s="91"/>
     </row>
     <row r="233" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B233" s="90"/>
-      <c r="C233" s="91"/>
-      <c r="D233" s="91"/>
-      <c r="E233" s="91"/>
-      <c r="F233" s="92"/>
+      <c r="B233" s="89"/>
+      <c r="C233" s="90"/>
+      <c r="D233" s="90"/>
+      <c r="E233" s="90"/>
+      <c r="F233" s="91"/>
     </row>
     <row r="234" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B234" s="90"/>
-      <c r="C234" s="91"/>
-      <c r="D234" s="91"/>
-      <c r="E234" s="91"/>
-      <c r="F234" s="92"/>
+      <c r="B234" s="89"/>
+      <c r="C234" s="90"/>
+      <c r="D234" s="90"/>
+      <c r="E234" s="90"/>
+      <c r="F234" s="91"/>
     </row>
     <row r="235" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B235" s="90"/>
-      <c r="C235" s="91"/>
-      <c r="D235" s="91"/>
-      <c r="E235" s="91"/>
-      <c r="F235" s="92"/>
+      <c r="B235" s="89"/>
+      <c r="C235" s="90"/>
+      <c r="D235" s="90"/>
+      <c r="E235" s="90"/>
+      <c r="F235" s="91"/>
     </row>
     <row r="236" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B236" s="90"/>
-      <c r="C236" s="91"/>
-      <c r="D236" s="91"/>
-      <c r="E236" s="91"/>
-      <c r="F236" s="92"/>
+      <c r="B236" s="89"/>
+      <c r="C236" s="90"/>
+      <c r="D236" s="90"/>
+      <c r="E236" s="90"/>
+      <c r="F236" s="91"/>
     </row>
     <row r="237" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B237" s="90"/>
-      <c r="C237" s="91"/>
-      <c r="D237" s="91"/>
-      <c r="E237" s="91"/>
-      <c r="F237" s="92"/>
+      <c r="B237" s="89"/>
+      <c r="C237" s="90"/>
+      <c r="D237" s="90"/>
+      <c r="E237" s="90"/>
+      <c r="F237" s="91"/>
     </row>
     <row r="238" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B238" s="90"/>
-      <c r="C238" s="91"/>
-      <c r="D238" s="91"/>
-      <c r="E238" s="91"/>
-      <c r="F238" s="92"/>
+      <c r="B238" s="89"/>
+      <c r="C238" s="90"/>
+      <c r="D238" s="90"/>
+      <c r="E238" s="90"/>
+      <c r="F238" s="91"/>
     </row>
     <row r="239" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B239" s="90"/>
-      <c r="C239" s="91"/>
-      <c r="D239" s="91"/>
-      <c r="E239" s="91"/>
-      <c r="F239" s="92"/>
+      <c r="B239" s="89"/>
+      <c r="C239" s="90"/>
+      <c r="D239" s="90"/>
+      <c r="E239" s="90"/>
+      <c r="F239" s="91"/>
     </row>
     <row r="240" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B240" s="90"/>
-      <c r="C240" s="91"/>
-      <c r="D240" s="91"/>
-      <c r="E240" s="91"/>
-      <c r="F240" s="92"/>
+      <c r="B240" s="89"/>
+      <c r="C240" s="90"/>
+      <c r="D240" s="90"/>
+      <c r="E240" s="90"/>
+      <c r="F240" s="91"/>
     </row>
     <row r="241" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B241" s="90"/>
-      <c r="C241" s="91"/>
-      <c r="D241" s="91"/>
-      <c r="E241" s="91"/>
-      <c r="F241" s="92"/>
+      <c r="B241" s="89"/>
+      <c r="C241" s="90"/>
+      <c r="D241" s="90"/>
+      <c r="E241" s="90"/>
+      <c r="F241" s="91"/>
     </row>
     <row r="242" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B242" s="90"/>
-      <c r="C242" s="91"/>
-      <c r="D242" s="91"/>
-      <c r="E242" s="91"/>
-      <c r="F242" s="92"/>
+      <c r="B242" s="89"/>
+      <c r="C242" s="90"/>
+      <c r="D242" s="90"/>
+      <c r="E242" s="90"/>
+      <c r="F242" s="91"/>
     </row>
     <row r="243" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B243" s="90"/>
-      <c r="C243" s="91"/>
-      <c r="D243" s="91"/>
-      <c r="E243" s="91"/>
-      <c r="F243" s="92"/>
+      <c r="B243" s="89"/>
+      <c r="C243" s="90"/>
+      <c r="D243" s="90"/>
+      <c r="E243" s="90"/>
+      <c r="F243" s="91"/>
     </row>
     <row r="244" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B244" s="90"/>
-      <c r="C244" s="91"/>
-      <c r="D244" s="91"/>
-      <c r="E244" s="91"/>
-      <c r="F244" s="92"/>
+      <c r="B244" s="89"/>
+      <c r="C244" s="90"/>
+      <c r="D244" s="90"/>
+      <c r="E244" s="90"/>
+      <c r="F244" s="91"/>
     </row>
     <row r="245" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B245" s="90"/>
-      <c r="C245" s="91"/>
-      <c r="D245" s="91"/>
-      <c r="E245" s="91"/>
-      <c r="F245" s="92"/>
+      <c r="B245" s="89"/>
+      <c r="C245" s="90"/>
+      <c r="D245" s="90"/>
+      <c r="E245" s="90"/>
+      <c r="F245" s="91"/>
     </row>
     <row r="246" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B246" s="90"/>
-      <c r="C246" s="91"/>
-      <c r="D246" s="91"/>
-      <c r="E246" s="91"/>
-      <c r="F246" s="92"/>
+      <c r="B246" s="89"/>
+      <c r="C246" s="90"/>
+      <c r="D246" s="90"/>
+      <c r="E246" s="90"/>
+      <c r="F246" s="91"/>
     </row>
     <row r="247" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B247" s="90"/>
-      <c r="C247" s="91"/>
-      <c r="D247" s="91"/>
-      <c r="E247" s="91"/>
-      <c r="F247" s="92"/>
+      <c r="B247" s="89"/>
+      <c r="C247" s="90"/>
+      <c r="D247" s="90"/>
+      <c r="E247" s="90"/>
+      <c r="F247" s="91"/>
     </row>
     <row r="248" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B248" s="90"/>
-      <c r="C248" s="91"/>
-      <c r="D248" s="91"/>
-      <c r="E248" s="91"/>
-      <c r="F248" s="92"/>
+      <c r="B248" s="89"/>
+      <c r="C248" s="90"/>
+      <c r="D248" s="90"/>
+      <c r="E248" s="90"/>
+      <c r="F248" s="91"/>
     </row>
     <row r="249" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B249" s="90"/>
-      <c r="C249" s="91"/>
-      <c r="D249" s="91"/>
-      <c r="E249" s="91"/>
-      <c r="F249" s="92"/>
+      <c r="B249" s="89"/>
+      <c r="C249" s="90"/>
+      <c r="D249" s="90"/>
+      <c r="E249" s="90"/>
+      <c r="F249" s="91"/>
     </row>
     <row r="250" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B250" s="90"/>
-      <c r="C250" s="91"/>
-      <c r="D250" s="91"/>
-      <c r="E250" s="91"/>
-      <c r="F250" s="92"/>
+      <c r="B250" s="89"/>
+      <c r="C250" s="90"/>
+      <c r="D250" s="90"/>
+      <c r="E250" s="90"/>
+      <c r="F250" s="91"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="90"/>
+      <c r="B251" s="89"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B252" s="90"/>
+      <c r="B252" s="89"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="90"/>
+      <c r="B253" s="89"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="90"/>
+      <c r="B254" s="89"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="90"/>
+      <c r="B255" s="89"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="90"/>
+      <c r="B256" s="89"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B257" s="90"/>
+      <c r="B257" s="89"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="90"/>
+      <c r="B258" s="89"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="90"/>
+      <c r="B259" s="89"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="90"/>
+      <c r="B260" s="89"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="90"/>
+      <c r="B261" s="89"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="90"/>
+      <c r="B262" s="89"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="90"/>
+      <c r="B263" s="89"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="90"/>
+      <c r="B264" s="89"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="90"/>
+      <c r="B265" s="89"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="90"/>
+      <c r="B266" s="89"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="90"/>
+      <c r="B267" s="89"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B268" s="90"/>
+      <c r="B268" s="89"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="90"/>
+      <c r="B269" s="89"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="90"/>
+      <c r="B270" s="89"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="90"/>
+      <c r="B271" s="89"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="90"/>
+      <c r="B272" s="89"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="90"/>
+      <c r="B273" s="89"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="90"/>
+      <c r="B274" s="89"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B275" s="90"/>
+      <c r="B275" s="89"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="90"/>
+      <c r="B276" s="89"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="90"/>
+      <c r="B277" s="89"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="90"/>
+      <c r="B278" s="89"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="90"/>
+      <c r="B279" s="89"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" s="90"/>
+      <c r="B280" s="89"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="90"/>
+      <c r="B281" s="89"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="90"/>
+      <c r="B282" s="89"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B283" s="90"/>
+      <c r="B283" s="89"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="90"/>
+      <c r="B284" s="89"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" s="90"/>
+      <c r="B285" s="89"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="90"/>
+      <c r="B286" s="89"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" s="90"/>
+      <c r="B287" s="89"/>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" s="90"/>
+      <c r="B288" s="89"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B289" s="90"/>
+      <c r="B289" s="89"/>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="90"/>
+      <c r="B290" s="89"/>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="90"/>
+      <c r="B291" s="89"/>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="90"/>
+      <c r="B292" s="89"/>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" s="90"/>
+      <c r="B293" s="89"/>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" s="90"/>
+      <c r="B294" s="89"/>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" s="90"/>
+      <c r="B295" s="89"/>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" s="90"/>
+      <c r="B296" s="89"/>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B297" s="90"/>
+      <c r="B297" s="89"/>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="90"/>
+      <c r="B298" s="89"/>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" s="90"/>
+      <c r="B299" s="89"/>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" s="90"/>
+      <c r="B300" s="89"/>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="90"/>
+      <c r="B301" s="89"/>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" s="90"/>
+      <c r="B302" s="89"/>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" s="90"/>
+      <c r="B303" s="89"/>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" s="90"/>
+      <c r="B304" s="89"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B305" s="90"/>
+      <c r="B305" s="89"/>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B306" s="90"/>
+      <c r="B306" s="89"/>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B307" s="90"/>
+      <c r="B307" s="89"/>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B308" s="90"/>
+      <c r="B308" s="89"/>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B309" s="90"/>
+      <c r="B309" s="89"/>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B310" s="90"/>
+      <c r="B310" s="89"/>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B311" s="90"/>
+      <c r="B311" s="89"/>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B312" s="90"/>
+      <c r="B312" s="89"/>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B313" s="90"/>
+      <c r="B313" s="89"/>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B314" s="90"/>
+      <c r="B314" s="89"/>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B315" s="90"/>
+      <c r="B315" s="89"/>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B316" s="90"/>
+      <c r="B316" s="89"/>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B317" s="90"/>
+      <c r="B317" s="89"/>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B318" s="90"/>
+      <c r="B318" s="89"/>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B319" s="90"/>
+      <c r="B319" s="89"/>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B320" s="90"/>
+      <c r="B320" s="89"/>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B321" s="90"/>
+      <c r="B321" s="89"/>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B322" s="90"/>
+      <c r="B322" s="89"/>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B323" s="90"/>
+      <c r="B323" s="89"/>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B324" s="90"/>
+      <c r="B324" s="89"/>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B325" s="90"/>
+      <c r="B325" s="89"/>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B326" s="90"/>
+      <c r="B326" s="89"/>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B327" s="90"/>
+      <c r="B327" s="89"/>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B328" s="90"/>
+      <c r="B328" s="89"/>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B329" s="90"/>
+      <c r="B329" s="89"/>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B330" s="90"/>
+      <c r="B330" s="89"/>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B331" s="90"/>
+      <c r="B331" s="89"/>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B332" s="90"/>
+      <c r="B332" s="89"/>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B333" s="90"/>
+      <c r="B333" s="89"/>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B334" s="90"/>
+      <c r="B334" s="89"/>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B335" s="90"/>
+      <c r="B335" s="89"/>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B336" s="90"/>
+      <c r="B336" s="89"/>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" s="90"/>
+      <c r="B337" s="89"/>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" s="90"/>
+      <c r="B338" s="89"/>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B339" s="90"/>
+      <c r="B339" s="89"/>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B340" s="90"/>
+      <c r="B340" s="89"/>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" s="90"/>
+      <c r="B341" s="89"/>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" s="90"/>
+      <c r="B342" s="89"/>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" s="90"/>
+      <c r="B343" s="89"/>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" s="90"/>
+      <c r="B344" s="89"/>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" s="90"/>
+      <c r="B345" s="89"/>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" s="90"/>
+      <c r="B346" s="89"/>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" s="90"/>
+      <c r="B347" s="89"/>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" s="90"/>
+      <c r="B348" s="89"/>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" s="90"/>
+      <c r="B349" s="89"/>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" s="90"/>
+      <c r="B350" s="89"/>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" s="90"/>
+      <c r="B351" s="89"/>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" s="90"/>
+      <c r="B352" s="89"/>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" s="90"/>
+      <c r="B353" s="89"/>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" s="90"/>
+      <c r="B354" s="89"/>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" s="90"/>
+      <c r="B355" s="89"/>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" s="90"/>
+      <c r="B356" s="89"/>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" s="90"/>
+      <c r="B357" s="89"/>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" s="90"/>
+      <c r="B358" s="89"/>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" s="90"/>
+      <c r="B359" s="89"/>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B360" s="90"/>
+      <c r="B360" s="89"/>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B361" s="90"/>
+      <c r="B361" s="89"/>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" s="90"/>
+      <c r="B362" s="89"/>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B363" s="90"/>
+      <c r="B363" s="89"/>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B364" s="90"/>
+      <c r="B364" s="89"/>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" s="90"/>
+      <c r="B365" s="89"/>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" s="90"/>
+      <c r="B366" s="89"/>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" s="90"/>
+      <c r="B367" s="89"/>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" s="90"/>
+      <c r="B368" s="89"/>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" s="90"/>
+      <c r="B369" s="89"/>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" s="90"/>
+      <c r="B370" s="89"/>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" s="90"/>
+      <c r="B371" s="89"/>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B372" s="90"/>
+      <c r="B372" s="89"/>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" s="90"/>
+      <c r="B373" s="89"/>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" s="90"/>
+      <c r="B374" s="89"/>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" s="90"/>
+      <c r="B375" s="89"/>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" s="90"/>
+      <c r="B376" s="89"/>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B377" s="90"/>
+      <c r="B377" s="89"/>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B378" s="90"/>
+      <c r="B378" s="89"/>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B379" s="90"/>
+      <c r="B379" s="89"/>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" s="90"/>
+      <c r="B380" s="89"/>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B381" s="90"/>
+      <c r="B381" s="89"/>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B382" s="90"/>
+      <c r="B382" s="89"/>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" s="90"/>
+      <c r="B383" s="89"/>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" s="90"/>
+      <c r="B384" s="89"/>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B385" s="90"/>
+      <c r="B385" s="89"/>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" s="90"/>
+      <c r="B386" s="89"/>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B387" s="90"/>
+      <c r="B387" s="89"/>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" s="90"/>
+      <c r="B388" s="89"/>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" s="90"/>
+      <c r="B389" s="89"/>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B390" s="90"/>
+      <c r="B390" s="89"/>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" s="90"/>
+      <c r="B391" s="89"/>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B392" s="90"/>
+      <c r="B392" s="89"/>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B393" s="90"/>
+      <c r="B393" s="89"/>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B394" s="90"/>
+      <c r="B394" s="89"/>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" s="90"/>
+      <c r="B395" s="89"/>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B396" s="90"/>
+      <c r="B396" s="89"/>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B397" s="90"/>
+      <c r="B397" s="89"/>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" s="90"/>
+      <c r="B398" s="89"/>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B399" s="90"/>
+      <c r="B399" s="89"/>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B400" s="90"/>
+      <c r="B400" s="89"/>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B401" s="90"/>
+      <c r="B401" s="89"/>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B402" s="90"/>
+      <c r="B402" s="89"/>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B403" s="90"/>
+      <c r="B403" s="89"/>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" s="90"/>
+      <c r="B404" s="89"/>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B405" s="90"/>
+      <c r="B405" s="89"/>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" s="90"/>
+      <c r="B406" s="89"/>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B407" s="90"/>
+      <c r="B407" s="89"/>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" s="90"/>
+      <c r="B408" s="89"/>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B409" s="90"/>
+      <c r="B409" s="89"/>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" s="90"/>
+      <c r="B410" s="89"/>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B411" s="90"/>
+      <c r="B411" s="89"/>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B412" s="90"/>
+      <c r="B412" s="89"/>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B413" s="90"/>
+      <c r="B413" s="89"/>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B414" s="90"/>
+      <c r="B414" s="89"/>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B415" s="90"/>
+      <c r="B415" s="89"/>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B416" s="90"/>
+      <c r="B416" s="89"/>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B417" s="90"/>
+      <c r="B417" s="89"/>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B418" s="90"/>
+      <c r="B418" s="89"/>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B419" s="90"/>
+      <c r="B419" s="89"/>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B420" s="90"/>
+      <c r="B420" s="89"/>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B421" s="90"/>
+      <c r="B421" s="89"/>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B422" s="90"/>
+      <c r="B422" s="89"/>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B423" s="90"/>
+      <c r="B423" s="89"/>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B424" s="90"/>
+      <c r="B424" s="89"/>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B425" s="90"/>
+      <c r="B425" s="89"/>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B426" s="90"/>
+      <c r="B426" s="89"/>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B427" s="90"/>
+      <c r="B427" s="89"/>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" s="90"/>
+      <c r="B428" s="89"/>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B429" s="90"/>
+      <c r="B429" s="89"/>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B430" s="90"/>
+      <c r="B430" s="89"/>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B431" s="90"/>
+      <c r="B431" s="89"/>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B432" s="90"/>
+      <c r="B432" s="89"/>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B433" s="90"/>
+      <c r="B433" s="89"/>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B434" s="90"/>
+      <c r="B434" s="89"/>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B435" s="90"/>
+      <c r="B435" s="89"/>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B436" s="90"/>
+      <c r="B436" s="89"/>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B437" s="90"/>
+      <c r="B437" s="89"/>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B438" s="90"/>
+      <c r="B438" s="89"/>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B439" s="90"/>
+      <c r="B439" s="89"/>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B440" s="90"/>
+      <c r="B440" s="89"/>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B441" s="90"/>
+      <c r="B441" s="89"/>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B442" s="90"/>
+      <c r="B442" s="89"/>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B443" s="90"/>
+      <c r="B443" s="89"/>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B444" s="90"/>
+      <c r="B444" s="89"/>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B445" s="90"/>
+      <c r="B445" s="89"/>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B446" s="90"/>
+      <c r="B446" s="89"/>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B447" s="90"/>
+      <c r="B447" s="89"/>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B448" s="90"/>
+      <c r="B448" s="89"/>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B449" s="90"/>
+      <c r="B449" s="89"/>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B450" s="90"/>
+      <c r="B450" s="89"/>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B451" s="90"/>
+      <c r="B451" s="89"/>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B452" s="90"/>
+      <c r="B452" s="89"/>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B453" s="90"/>
+      <c r="B453" s="89"/>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B454" s="90"/>
+      <c r="B454" s="89"/>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B455" s="90"/>
+      <c r="B455" s="89"/>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B456" s="90"/>
+      <c r="B456" s="89"/>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B457" s="90"/>
+      <c r="B457" s="89"/>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B458" s="90"/>
+      <c r="B458" s="89"/>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B459" s="90"/>
+      <c r="B459" s="89"/>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B460" s="90"/>
+      <c r="B460" s="89"/>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B461" s="90"/>
+      <c r="B461" s="89"/>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B462" s="90"/>
+      <c r="B462" s="89"/>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B463" s="90"/>
+      <c r="B463" s="89"/>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B464" s="90"/>
+      <c r="B464" s="89"/>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B465" s="90"/>
+      <c r="B465" s="89"/>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B466" s="90"/>
+      <c r="B466" s="89"/>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B467" s="90"/>
+      <c r="B467" s="89"/>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B468" s="90"/>
+      <c r="B468" s="89"/>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B469" s="90"/>
+      <c r="B469" s="89"/>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B470" s="90"/>
+      <c r="B470" s="89"/>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B471" s="90"/>
+      <c r="B471" s="89"/>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B472" s="90"/>
+      <c r="B472" s="89"/>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B473" s="90"/>
+      <c r="B473" s="89"/>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B474" s="90"/>
+      <c r="B474" s="89"/>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B475" s="90"/>
+      <c r="B475" s="89"/>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B476" s="90"/>
+      <c r="B476" s="89"/>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B477" s="90"/>
+      <c r="B477" s="89"/>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B478" s="90"/>
+      <c r="B478" s="89"/>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B479" s="90"/>
+      <c r="B479" s="89"/>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B480" s="90"/>
+      <c r="B480" s="89"/>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B481" s="90"/>
+      <c r="B481" s="89"/>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B482" s="90"/>
+      <c r="B482" s="89"/>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B483" s="90"/>
+      <c r="B483" s="89"/>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B484" s="90"/>
+      <c r="B484" s="89"/>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B485" s="90"/>
+      <c r="B485" s="89"/>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B486" s="90"/>
+      <c r="B486" s="89"/>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B487" s="90"/>
+      <c r="B487" s="89"/>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B488" s="90"/>
+      <c r="B488" s="89"/>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B489" s="90"/>
+      <c r="B489" s="89"/>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B490" s="90"/>
+      <c r="B490" s="89"/>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B491" s="90"/>
+      <c r="B491" s="89"/>
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B492" s="90"/>
+      <c r="B492" s="89"/>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B493" s="90"/>
+      <c r="B493" s="89"/>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B494" s="90"/>
+      <c r="B494" s="89"/>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B495" s="90"/>
+      <c r="B495" s="89"/>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B496" s="90"/>
+      <c r="B496" s="89"/>
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B497" s="90"/>
+      <c r="B497" s="89"/>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B498" s="90"/>
+      <c r="B498" s="89"/>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B499" s="90"/>
+      <c r="B499" s="89"/>
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B500" s="90"/>
+      <c r="B500" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="7">
